--- a/FOREX/data/FOREX_5Q.xlsx
+++ b/FOREX/data/FOREX_5Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="654">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -155,30 +155,450 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Andorra, Principality of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Algeria</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Angola</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Armenia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Aruba, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Azerbaijan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bahrain, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Belarus, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Andorra, Principality of</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Comoros, Union of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep. of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Croatia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao and Sint Maarten</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Czech Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -191,6 +611,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>Euro Area</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -248,103 +680,373 @@
     <t>...</t>
   </si>
   <si>
+    <t>Fiji, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Angola</t>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Anguilla</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Argentina</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Armenia, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Aruba, Kingdom of the Netherlands</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Australia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Azerbaijan, Rep. of</t>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bahamas, The</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bahrain, Kingdom of</t>
+    <t>Jersey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bangladesh</t>
+    <t>Jordan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Barbados</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Libya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Belarus, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
   <si>
     <t>Units</t>
@@ -353,130 +1055,520 @@
     <t>...</t>
   </si>
   <si>
-    <t>Belize</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bermuda</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bhutan</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bolivia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nauru, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Botswana</t>
+    <t>New Caledonia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Niger</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bulgaria</t>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
+    <t>Rwanda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Burundi</t>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
@@ -485,43 +1577,130 @@
     <t>...</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
@@ -530,1648 +1709,193 @@
     <t>...</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tanzania, United Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Timor-Leste, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Yemen, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Croatia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Curaçao and Sint Maarten</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Czech Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Dominican Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Egypt, Arab Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Eritrea, The State of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Eswatini, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Euro Area</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Fiji, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kazakhstan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -2757,7 +2481,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -3371,17 +3095,17 @@
       <c r="AJ9" s="20">
         <v>106.54000000000001</v>
       </c>
-      <c r="AK9" s="20" t="s">
-        <v>47</v>
+      <c r="AK9" s="20">
+        <v>109.28</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3482,101 +3206,101 @@
       <c r="AJ10" s="22">
         <v>138.83760000000001</v>
       </c>
-      <c r="AK10" s="22" t="s">
-        <v>50</v>
+      <c r="AK10" s="22">
+        <v>142.46000000000001</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="I11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="L11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="M11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="N11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="O11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="P11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="Q11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="R11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="S11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="T11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="U11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="V11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="W11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="X11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="Y11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="20" t="s">
+      <c r="Z11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="AA11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="AB11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="20" t="s">
+      <c r="AC11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AB11" s="20" t="s">
+      <c r="AD11" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AC11" s="20" t="s">
+      <c r="AE11" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="AF11" s="20">
         <v>0.81492950859750601</v>
@@ -3600,10 +3324,10 @@
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3704,17 +3428,17 @@
       <c r="AJ12" s="22">
         <v>554.98099999999999</v>
       </c>
-      <c r="AK12" s="22" t="s">
-        <v>82</v>
+      <c r="AK12" s="22">
+        <v>446.43865</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3822,10 +3546,10 @@
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3933,10 +3657,10 @@
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -4037,17 +3761,17 @@
       <c r="AJ15" s="20">
         <v>102.62</v>
       </c>
-      <c r="AK15" s="20" t="s">
-        <v>89</v>
+      <c r="AK15" s="20">
+        <v>110.91</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -4148,17 +3872,17 @@
       <c r="AJ16" s="22">
         <v>480.13999999999999</v>
       </c>
-      <c r="AK16" s="22" t="s">
-        <v>92</v>
+      <c r="AK16" s="22">
+        <v>485.91000000000003</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -4266,10 +3990,10 @@
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -4370,17 +4094,17 @@
       <c r="AJ18" s="22">
         <v>1.37816979051819</v>
       </c>
-      <c r="AK18" s="22" t="s">
-        <v>97</v>
+      <c r="AK18" s="22">
+        <v>1.33654103180968</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -4481,17 +4205,17 @@
       <c r="AJ19" s="20">
         <v>1.7</v>
       </c>
-      <c r="AK19" s="20" t="s">
-        <v>100</v>
+      <c r="AK19" s="20">
+        <v>1.7</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4599,10 +4323,10 @@
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4710,10 +4434,10 @@
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4814,17 +4538,17 @@
       <c r="AJ22" s="22">
         <v>85.799999999999997</v>
       </c>
-      <c r="AK22" s="22" t="s">
-        <v>107</v>
+      <c r="AK22" s="22">
+        <v>86.200000000000003</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4932,10 +4656,10 @@
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -5036,17 +4760,17 @@
       <c r="AJ24" s="22">
         <v>2.5480999999999998</v>
       </c>
-      <c r="AK24" s="22" t="s">
-        <v>112</v>
+      <c r="AK24" s="22">
+        <v>2.9731999999999998</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -5154,10 +4878,10 @@
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -5265,10 +4989,10 @@
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -5376,10 +5100,10 @@
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -5480,17 +5204,17 @@
       <c r="AJ28" s="22">
         <v>75.348100000000002</v>
       </c>
-      <c r="AK28" s="22" t="s">
-        <v>121</v>
+      <c r="AK28" s="22">
+        <v>75.807100000000005</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5591,17 +5315,17 @@
       <c r="AJ29" s="20">
         <v>6.9100000000000001</v>
       </c>
-      <c r="AK29" s="20" t="s">
-        <v>124</v>
+      <c r="AK29" s="20">
+        <v>6.9100000000000001</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5702,17 +5426,17 @@
       <c r="AJ30" s="22">
         <v>1.7256309999999999</v>
       </c>
-      <c r="AK30" s="22" t="s">
-        <v>127</v>
+      <c r="AK30" s="22">
+        <v>1.7578910000000001</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5813,17 +5537,17 @@
       <c r="AJ31" s="20">
         <v>11.742800000000001</v>
       </c>
-      <c r="AK31" s="20" t="s">
-        <v>130</v>
+      <c r="AK31" s="20">
+        <v>11.411099999999999</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5924,17 +5648,17 @@
       <c r="AJ32" s="22">
         <v>5.5799000000000003</v>
       </c>
-      <c r="AK32" s="22" t="s">
-        <v>133</v>
+      <c r="AK32" s="22">
+        <v>4.7371999999999996</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -6035,17 +5759,17 @@
       <c r="AJ33" s="20">
         <v>1.3614999999999999</v>
       </c>
-      <c r="AK33" s="20" t="s">
-        <v>136</v>
+      <c r="AK33" s="20">
+        <v>1.3533999999999999</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -6146,17 +5870,17 @@
       <c r="AJ34" s="22">
         <v>1.7269000000000001</v>
       </c>
-      <c r="AK34" s="22" t="s">
-        <v>139</v>
+      <c r="AK34" s="22">
+        <v>1.7619</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -6264,10 +5988,10 @@
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -6369,16 +6093,16 @@
         <v>2006.0999999999999</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6476,20 +6200,20 @@
       <c r="AI37" s="20">
         <v>94.616</v>
       </c>
-      <c r="AJ37" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK37" s="20" t="s">
-        <v>148</v>
+      <c r="AJ37" s="20">
+        <v>97.554000000000002</v>
+      </c>
+      <c r="AK37" s="20">
+        <v>100.223</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6590,17 +6314,17 @@
       <c r="AJ38" s="22">
         <v>4113.5</v>
       </c>
-      <c r="AK38" s="22" t="s">
-        <v>151</v>
+      <c r="AK38" s="22">
+        <v>4073</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6708,10 +6432,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6812,17 +6536,17 @@
       <c r="AJ40" s="22">
         <v>1.2865</v>
       </c>
-      <c r="AK40" s="22" t="s">
-        <v>156</v>
+      <c r="AK40" s="22">
+        <v>1.2496</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6930,10 +6654,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -7041,10 +6765,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -7152,10 +6876,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -7256,17 +6980,17 @@
       <c r="AJ44" s="22">
         <v>866.25</v>
       </c>
-      <c r="AK44" s="22" t="s">
-        <v>165</v>
+      <c r="AK44" s="22">
+        <v>787.15999999999997</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -7367,17 +7091,17 @@
       <c r="AJ45" s="20">
         <v>7.798</v>
       </c>
-      <c r="AK45" s="20" t="s">
-        <v>168</v>
+      <c r="AK45" s="20">
+        <v>7.8310000000000004</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7478,17 +7202,17 @@
       <c r="AJ46" s="22">
         <v>8.0319000000000003</v>
       </c>
-      <c r="AK46" s="22" t="s">
-        <v>171</v>
+      <c r="AK46" s="22">
+        <v>8.0623000000000005</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7589,17 +7313,17 @@
       <c r="AJ47" s="20">
         <v>6.3704000000000001</v>
       </c>
-      <c r="AK47" s="20" t="s">
-        <v>174</v>
+      <c r="AK47" s="20">
+        <v>6.3426999999999998</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7701,16 +7425,16 @@
         <v>3997.71</v>
       </c>
       <c r="AK48" s="22" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7818,10 +7542,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7922,17 +7646,17 @@
       <c r="AJ50" s="22">
         <v>1999.9746</v>
       </c>
-      <c r="AK50" s="22" t="s">
-        <v>182</v>
+      <c r="AK50" s="22">
+        <v>1999.7509</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -8040,10 +7764,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -8144,17 +7868,17 @@
       <c r="AJ52" s="22">
         <v>642.15499999999997</v>
       </c>
-      <c r="AK52" s="22" t="s">
-        <v>187</v>
+      <c r="AK52" s="22">
+        <v>663.78999999999996</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -8262,10 +7986,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -8366,17 +8090,17 @@
       <c r="AJ54" s="22">
         <v>6.643548</v>
       </c>
-      <c r="AK54" s="22" t="s">
-        <v>192</v>
+      <c r="AK54" s="22">
+        <v>6.8062189999999996</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8484,10 +8208,10 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8595,10 +8319,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8699,17 +8423,17 @@
       <c r="AJ57" s="20">
         <v>21.951000000000001</v>
       </c>
-      <c r="AK57" s="20" t="s">
-        <v>199</v>
+      <c r="AK57" s="20">
+        <v>21.963000000000001</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8817,10 +8541,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8928,10 +8652,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -9039,10 +8763,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -9143,17 +8867,17 @@
       <c r="AJ61" s="20">
         <v>57.545099999999998</v>
       </c>
-      <c r="AK61" s="20" t="s">
-        <v>208</v>
+      <c r="AK61" s="20">
+        <v>55.150500000000001</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -9261,10 +8985,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -9366,16 +9090,16 @@
         <v>15.661099999999999</v>
       </c>
       <c r="AK63" s="20" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9483,10 +9207,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9594,10 +9318,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9705,10 +9429,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9809,17 +9533,17 @@
       <c r="AJ67" s="20">
         <v>15.193</v>
       </c>
-      <c r="AK67" s="20" t="s">
-        <v>222</v>
+      <c r="AK67" s="20">
+        <v>14.57935</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9912,25 +9636,25 @@
         <v>41.316499999999998</v>
       </c>
       <c r="AH68" s="22" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AI68" s="22" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="AJ68" s="22" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="AK68" s="22" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -10038,10 +9762,10 @@
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -10089,70 +9813,70 @@
         <v>6.5164999999999997</v>
       </c>
       <c r="S70" s="22" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="V70" s="22" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="Z70" s="22" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AA70" s="22" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="AB70" s="22" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AC70" s="22" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="AD70" s="22" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="AE70" s="22" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="AF70" s="22" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="AG70" s="22" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="AH70" s="22" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="AI70" s="22" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AJ70" s="22" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AK70" s="22" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -10254,16 +9978,16 @@
         <v>2.1177000000000001</v>
       </c>
       <c r="AK71" s="20" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10371,10 +10095,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10482,10 +10206,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10587,16 +10311,16 @@
         <v>52.609999999999999</v>
       </c>
       <c r="AK74" s="22" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10704,10 +10428,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10806,19 +10530,19 @@
         <v>5.8662999999999998</v>
       </c>
       <c r="AJ76" s="22" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10919,17 +10643,17 @@
       <c r="AJ77" s="20">
         <v>0.74437993151704596</v>
       </c>
-      <c r="AK77" s="20" t="s">
-        <v>270</v>
+      <c r="AK77" s="20">
+        <v>0.76187573806712106</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10977,70 +10701,70 @@
         <v>6.5164999999999997</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="V78" s="22" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="W78" s="22" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="X78" s="22" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="Z78" s="22" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="AA78" s="22" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="AB78" s="22" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="AC78" s="22" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="AD78" s="22" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AE78" s="22" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AF78" s="22" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AG78" s="22" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AH78" s="22" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="AI78" s="22" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AJ78" s="22" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AK78" s="22" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -11148,10 +10872,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -11252,17 +10976,17 @@
       <c r="AJ80" s="22">
         <v>7.7192600000000002</v>
       </c>
-      <c r="AK80" s="22" t="s">
-        <v>296</v>
+      <c r="AK80" s="22">
+        <v>7.6777499999999996</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11363,17 +11087,17 @@
       <c r="AJ81" s="20">
         <v>0.74437993151704596</v>
       </c>
-      <c r="AK81" s="20" t="s">
-        <v>299</v>
+      <c r="AK81" s="20">
+        <v>0.76187573806712106</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11466,25 +11190,25 @@
         <v>9957.9716000000008</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11592,10 +11316,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11697,16 +11421,16 @@
         <v>208.5</v>
       </c>
       <c r="AK84" s="22" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11808,16 +11532,16 @@
         <v>99.866699999999994</v>
       </c>
       <c r="AK85" s="20" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11918,17 +11642,17 @@
       <c r="AJ86" s="22">
         <v>24.345400000000001</v>
       </c>
-      <c r="AK86" s="22" t="s">
-        <v>316</v>
+      <c r="AK86" s="22">
+        <v>24.340599999999998</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -12029,17 +11753,17 @@
       <c r="AJ87" s="20">
         <v>325.70999999999998</v>
       </c>
-      <c r="AK87" s="20" t="s">
-        <v>319</v>
+      <c r="AK87" s="20">
+        <v>332.08999999999997</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -12140,17 +11864,17 @@
       <c r="AJ88" s="22">
         <v>130.38</v>
       </c>
-      <c r="AK88" s="22" t="s">
-        <v>322</v>
+      <c r="AK88" s="22">
+        <v>127.92</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -12251,17 +11975,17 @@
       <c r="AJ89" s="20">
         <v>74.302499999999995</v>
       </c>
-      <c r="AK89" s="20" t="s">
-        <v>325</v>
+      <c r="AK89" s="20">
+        <v>75.807100000000005</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12369,10 +12093,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12480,10 +12204,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12581,20 +12305,20 @@
       <c r="AI92" s="22">
         <v>1450</v>
       </c>
-      <c r="AJ92" s="22" t="s">
-        <v>332</v>
+      <c r="AJ92" s="22">
+        <v>1450</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12695,17 +12419,17 @@
       <c r="AJ93" s="20">
         <v>0.74437993151704596</v>
       </c>
-      <c r="AK93" s="20" t="s">
-        <v>336</v>
+      <c r="AK93" s="20">
+        <v>0.76187573806712106</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12813,10 +12537,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12912,22 +12636,22 @@
         <v>146.7234</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="AK95" s="20" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -13028,17 +12752,17 @@
       <c r="AJ96" s="22">
         <v>114.20999999999999</v>
       </c>
-      <c r="AK96" s="22" t="s">
-        <v>346</v>
+      <c r="AK96" s="22">
+        <v>122.40000000000001</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -13139,17 +12863,17 @@
       <c r="AJ97" s="20">
         <v>0.74437993151704596</v>
       </c>
-      <c r="AK97" s="20" t="s">
-        <v>349</v>
+      <c r="AK97" s="20">
+        <v>0.76187573806712106</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -13257,10 +12981,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13361,17 +13085,17 @@
       <c r="AJ99" s="20">
         <v>431.80000000000001</v>
       </c>
-      <c r="AK99" s="20" t="s">
-        <v>354</v>
+      <c r="AK99" s="20">
+        <v>466.31</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13472,17 +13196,17 @@
       <c r="AJ100" s="22">
         <v>113.14117647058799</v>
       </c>
-      <c r="AK100" s="22" t="s">
-        <v>357</v>
+      <c r="AK100" s="22">
+        <v>114.95125</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13583,17 +13307,17 @@
       <c r="AJ101" s="20">
         <v>1.37816979051819</v>
       </c>
-      <c r="AK101" s="20" t="s">
-        <v>360</v>
+      <c r="AK101" s="20">
+        <v>1.33654103180968</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13694,17 +13418,17 @@
       <c r="AJ102" s="22">
         <v>1186.5999999999999</v>
       </c>
-      <c r="AK102" s="22" t="s">
-        <v>363</v>
+      <c r="AK102" s="22">
+        <v>1210.8</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13812,10 +13536,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13916,17 +13640,17 @@
       <c r="AJ104" s="22">
         <v>0.30249999999999999</v>
       </c>
-      <c r="AK104" s="22" t="s">
-        <v>368</v>
+      <c r="AK104" s="22">
+        <v>0.3039</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -14027,17 +13751,17 @@
       <c r="AJ105" s="20">
         <v>84.758600000000001</v>
       </c>
-      <c r="AK105" s="20" t="s">
-        <v>371</v>
+      <c r="AK105" s="20">
+        <v>83.308999999999997</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -14135,20 +13859,20 @@
       <c r="AI106" s="22">
         <v>9855</v>
       </c>
-      <c r="AJ106" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK106" s="22" t="s">
-        <v>375</v>
+      <c r="AJ106" s="22">
+        <v>11041</v>
+      </c>
+      <c r="AK106" s="22">
+        <v>11583</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -14256,10 +13980,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14360,17 +14084,17 @@
       <c r="AJ108" s="22">
         <v>15.9054073613406</v>
       </c>
-      <c r="AK108" s="22" t="s">
-        <v>380</v>
+      <c r="AK108" s="22">
+        <v>14.57935</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14466,22 +14190,22 @@
         <v>171.41829999999999</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14568,31 +14292,31 @@
         <v>1.3755158184319101</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14610,100 +14334,100 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="L111" s="20" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="R111" s="20" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="T111" s="20" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="U111" s="20" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="V111" s="20" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="W111" s="20" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="X111" s="20" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="Y111" s="20" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="Z111" s="20" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="AA111" s="20" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="AB111" s="20" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="AC111" s="20" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="AD111" s="20" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="AE111" s="20" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="AF111" s="20" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="AG111" s="20" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AH111" s="20" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="AI111" s="20" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="AJ111" s="20" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="AK111" s="20" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14804,17 +14528,17 @@
       <c r="AJ112" s="22">
         <v>3956.6599999999999</v>
       </c>
-      <c r="AK112" s="22" t="s">
-        <v>427</v>
+      <c r="AK112" s="22">
+        <v>3974.9699999999998</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14913,19 +14637,19 @@
         <v>822.165467511781</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -15026,17 +14750,17 @@
       <c r="AJ114" s="22">
         <v>4.1760000000000002</v>
       </c>
-      <c r="AK114" s="22" t="s">
-        <v>434</v>
+      <c r="AK114" s="22">
+        <v>4.2039999999999997</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -15137,17 +14861,17 @@
       <c r="AJ115" s="20">
         <v>15.390000000000001</v>
       </c>
-      <c r="AK115" s="20" t="s">
-        <v>437</v>
+      <c r="AK115" s="20">
+        <v>15.369999999999999</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -15255,10 +14979,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15351,25 +15075,25 @@
         <v>35.920000000000002</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15470,17 +15194,17 @@
       <c r="AJ118" s="22">
         <v>43.529400000000003</v>
       </c>
-      <c r="AK118" s="22" t="s">
-        <v>448</v>
+      <c r="AK118" s="22">
+        <v>44.483899999999998</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15581,17 +15305,17 @@
       <c r="AJ119" s="20">
         <v>20.583500000000001</v>
       </c>
-      <c r="AK119" s="20" t="s">
-        <v>451</v>
+      <c r="AK119" s="20">
+        <v>19.994199999999999</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15699,10 +15423,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15803,17 +15527,17 @@
       <c r="AJ121" s="20">
         <v>17.745200000000001</v>
       </c>
-      <c r="AK121" s="20" t="s">
-        <v>456</v>
+      <c r="AK121" s="20">
+        <v>18.322299999999998</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15914,17 +15638,17 @@
       <c r="AJ122" s="22">
         <v>2849.3400000000001</v>
       </c>
-      <c r="AK122" s="22" t="s">
-        <v>459</v>
+      <c r="AK122" s="22">
+        <v>2948.46</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -16032,10 +15756,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -16143,10 +15867,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -16247,17 +15971,17 @@
       <c r="AJ125" s="20">
         <v>9.2804000000000002</v>
       </c>
-      <c r="AK125" s="20" t="s">
-        <v>466</v>
+      <c r="AK125" s="20">
+        <v>9.0606000000000009</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>468</v>
+        <v>410</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16358,17 +16082,17 @@
       <c r="AJ126" s="22">
         <v>63.829999999999998</v>
       </c>
-      <c r="AK126" s="22" t="s">
-        <v>469</v>
+      <c r="AK126" s="22">
+        <v>63.829999999999998</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16461,25 +16185,25 @@
         <v>1448.9000000000001</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16587,10 +16311,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16691,17 +16415,17 @@
       <c r="AJ129" s="20">
         <v>1.37816979051819</v>
       </c>
-      <c r="AK129" s="20" t="s">
-        <v>480</v>
+      <c r="AK129" s="20">
+        <v>1.33654103180968</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16803,16 +16527,16 @@
         <v>121.39</v>
       </c>
       <c r="AK130" s="22" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16920,10 +16644,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -17031,10 +16755,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -17136,16 +16860,16 @@
         <v>35.521000000000001</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -17253,10 +16977,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17355,19 +17079,19 @@
         <v>410.80000000000001</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17468,17 +17192,17 @@
       <c r="AJ136" s="22">
         <v>54.373600000000003</v>
       </c>
-      <c r="AK136" s="22" t="s">
-        <v>499</v>
+      <c r="AK136" s="22">
+        <v>55.4512</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17579,17 +17303,17 @@
       <c r="AJ137" s="20">
         <v>8.8200000000000003</v>
       </c>
-      <c r="AK137" s="20" t="s">
-        <v>502</v>
+      <c r="AK137" s="20">
+        <v>8.75</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17697,10 +17421,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17801,17 +17525,17 @@
       <c r="AJ139" s="20">
         <v>176.51910000000001</v>
       </c>
-      <c r="AK139" s="20" t="s">
-        <v>507</v>
+      <c r="AK139" s="20">
+        <v>183.5146</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17919,10 +17643,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -18030,10 +17754,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -18135,16 +17859,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -18245,17 +17969,17 @@
       <c r="AJ143" s="20">
         <v>6879.1049999999996</v>
       </c>
-      <c r="AK143" s="20" t="s">
-        <v>517</v>
+      <c r="AK143" s="20">
+        <v>6926.4949999999999</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18356,17 +18080,17 @@
       <c r="AJ144" s="22">
         <v>3.9870000000000001</v>
       </c>
-      <c r="AK144" s="22" t="s">
-        <v>520</v>
+      <c r="AK144" s="22">
+        <v>3.698</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18467,17 +18191,17 @@
       <c r="AJ145" s="20">
         <v>50.774000000000001</v>
       </c>
-      <c r="AK145" s="20" t="s">
-        <v>523</v>
+      <c r="AK145" s="20">
+        <v>51.960000000000001</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18578,17 +18302,17 @@
       <c r="AJ146" s="22">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AK146" s="22" t="s">
-        <v>526</v>
+      <c r="AK146" s="22">
+        <v>4.1801000000000004</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18696,10 +18420,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18800,17 +18524,17 @@
       <c r="AJ148" s="22">
         <v>4.3707000000000003</v>
       </c>
-      <c r="AK148" s="22" t="s">
-        <v>531</v>
+      <c r="AK148" s="22">
+        <v>4.4508000000000001</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18912,16 +18636,16 @@
         <v>74.292599999999993</v>
       </c>
       <c r="AK149" s="20" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -19022,17 +18746,17 @@
       <c r="AJ150" s="22">
         <v>1009.617782</v>
       </c>
-      <c r="AK150" s="22" t="s">
-        <v>537</v>
+      <c r="AK150" s="22">
+        <v>1017.116279</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -19133,17 +18857,17 @@
       <c r="AJ151" s="20">
         <v>2.6041666600000002</v>
       </c>
-      <c r="AK151" s="20" t="s">
-        <v>540</v>
+      <c r="AK151" s="20">
+        <v>2.5660764690787801</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -19251,10 +18975,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>543</v>
+        <v>473</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>544</v>
+        <v>474</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19344,28 +19068,28 @@
         <v>19.9495</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>545</v>
+        <v>475</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="AK153" s="20" t="s">
-        <v>549</v>
+        <v>479</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19473,10 +19197,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19584,10 +19308,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19688,17 +19412,17 @@
       <c r="AJ156" s="22">
         <v>103.92619999999999</v>
       </c>
-      <c r="AK156" s="22" t="s">
-        <v>556</v>
+      <c r="AK156" s="22">
+        <v>105.502</v>
       </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19800,16 +19524,16 @@
         <v>14.6991</v>
       </c>
       <c r="AK157" s="20" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>561</v>
+        <v>490</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19908,19 +19632,19 @@
         <v>10570.98</v>
       </c>
       <c r="AJ158" s="22" t="s">
-        <v>562</v>
+        <v>491</v>
       </c>
       <c r="AK158" s="22" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -20021,17 +19745,17 @@
       <c r="AJ159" s="20">
         <v>1.3516999999999999</v>
       </c>
-      <c r="AK159" s="20" t="s">
-        <v>566</v>
+      <c r="AK159" s="20">
+        <v>1.3533999999999999</v>
       </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>567</v>
+        <v>495</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -20139,10 +19863,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>569</v>
+        <v>497</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -20243,17 +19967,17 @@
       <c r="AJ161" s="20">
         <v>8.0971659919028305</v>
       </c>
-      <c r="AK161" s="20" t="s">
-        <v>571</v>
+      <c r="AK161" s="20">
+        <v>8.02568218298555</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>573</v>
+        <v>500</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20313,58 +20037,58 @@
         <v>24305</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>575</v>
+        <v>502</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>576</v>
+        <v>503</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>577</v>
+        <v>504</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>578</v>
+        <v>505</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>579</v>
+        <v>506</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>580</v>
+        <v>507</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>581</v>
+        <v>508</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>582</v>
+        <v>509</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>583</v>
+        <v>510</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>584</v>
+        <v>511</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>585</v>
+        <v>512</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>587</v>
+        <v>514</v>
       </c>
       <c r="AK162" s="22" t="s">
-        <v>588</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20465,17 +20189,17 @@
       <c r="AJ163" s="20">
         <v>15.9054073613406</v>
       </c>
-      <c r="AK163" s="20" t="s">
-        <v>591</v>
+      <c r="AK163" s="20">
+        <v>14.579342238395601</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>593</v>
+        <v>519</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20577,16 +20301,16 @@
         <v>432.03399999999999</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>594</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20676,28 +20400,28 @@
         <v>186.40819999999999</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20805,10 +20529,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20916,10 +20640,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>606</v>
+        <v>532</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>607</v>
+        <v>533</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -21027,10 +20751,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -21123,25 +20847,25 @@
         <v>380.81</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>613</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>614</v>
+        <v>540</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -21242,17 +20966,17 @@
       <c r="AJ170" s="22">
         <v>21.0945</v>
       </c>
-      <c r="AK170" s="22" t="s">
-        <v>616</v>
+      <c r="AK170" s="22">
+        <v>21.402000000000001</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>618</v>
+        <v>543</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21360,10 +21084,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>620</v>
+        <v>545</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21464,17 +21188,17 @@
       <c r="AJ172" s="22">
         <v>0.91269999999999996</v>
       </c>
-      <c r="AK172" s="22" t="s">
-        <v>621</v>
+      <c r="AK172" s="22">
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>622</v>
+        <v>546</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>623</v>
+        <v>547</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21537,55 +21261,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>624</v>
+        <v>548</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>625</v>
+        <v>549</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>627</v>
+        <v>551</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>628</v>
+        <v>552</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>629</v>
+        <v>553</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>630</v>
+        <v>554</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>631</v>
+        <v>555</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>633</v>
+        <v>557</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>634</v>
+        <v>558</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>635</v>
+        <v>559</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>636</v>
+        <v>560</v>
       </c>
       <c r="AK173" s="20" t="s">
-        <v>637</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>638</v>
+        <v>562</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>639</v>
+        <v>563</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21687,16 +21411,16 @@
         <v>27.690000000000001</v>
       </c>
       <c r="AK174" s="22" t="s">
-        <v>640</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>641</v>
+        <v>565</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>642</v>
+        <v>566</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21797,17 +21521,17 @@
       <c r="AJ175" s="20">
         <v>11.300000000000001</v>
       </c>
-      <c r="AK175" s="20" t="s">
-        <v>643</v>
+      <c r="AK175" s="20">
+        <v>12.960000000000001</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>645</v>
+        <v>568</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21905,20 +21629,20 @@
       <c r="AI176" s="22">
         <v>2296.9026237623798</v>
       </c>
-      <c r="AJ176" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AK176" s="22" t="s">
-        <v>647</v>
+      <c r="AJ176" s="22">
+        <v>2297.609109</v>
+      </c>
+      <c r="AK176" s="22">
+        <v>2298.5544059405902</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>648</v>
+        <v>569</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>649</v>
+        <v>570</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -22019,17 +21743,17 @@
       <c r="AJ177" s="20">
         <v>33.419899999999998</v>
       </c>
-      <c r="AK177" s="20" t="s">
-        <v>650</v>
+      <c r="AK177" s="20">
+        <v>33.2973</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>651</v>
+        <v>571</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>652</v>
+        <v>572</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -22137,10 +21861,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>653</v>
+        <v>573</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>654</v>
+        <v>574</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -22248,10 +21972,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>655</v>
+        <v>575</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>656</v>
+        <v>576</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22344,25 +22068,25 @@
         <v>2.2909507445589901</v>
       </c>
       <c r="AH180" s="22">
-        <v>2.2426553038797898</v>
+        <v>2.2502250225022502</v>
       </c>
       <c r="AI180" s="22">
-        <v>2.2542831379621302</v>
+        <v>2.2758306781975399</v>
       </c>
       <c r="AJ180" s="22">
-        <v>2.2851919561243101</v>
+        <v>2.27427791676143</v>
       </c>
       <c r="AK180" s="22" t="s">
-        <v>657</v>
+        <v>577</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>658</v>
+        <v>578</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>659</v>
+        <v>579</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22463,17 +22187,17 @@
       <c r="AJ181" s="20">
         <v>6.7716000000000003</v>
       </c>
-      <c r="AK181" s="20" t="s">
-        <v>660</v>
+      <c r="AK181" s="20">
+        <v>6.7545000000000002</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>662</v>
+        <v>581</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22574,17 +22298,17 @@
       <c r="AJ182" s="22">
         <v>2.8864999999999998</v>
       </c>
-      <c r="AK182" s="22" t="s">
-        <v>663</v>
+      <c r="AK182" s="22">
+        <v>2.9590999999999998</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>664</v>
+        <v>582</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>665</v>
+        <v>583</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22682,20 +22406,20 @@
       <c r="AI183" s="20">
         <v>8.8512500000000003</v>
       </c>
-      <c r="AJ183" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="AK183" s="20" t="s">
-        <v>667</v>
+      <c r="AJ183" s="20">
+        <v>12.9892</v>
+      </c>
+      <c r="AK183" s="20">
+        <v>14.659000000000001</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>668</v>
+        <v>584</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>669</v>
+        <v>585</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22796,17 +22520,17 @@
       <c r="AJ184" s="22">
         <v>3544.4099999999999</v>
       </c>
-      <c r="AK184" s="22" t="s">
-        <v>670</v>
+      <c r="AK184" s="22">
+        <v>3588.1599999999999</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>671</v>
+        <v>586</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>672</v>
+        <v>587</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22907,17 +22631,17 @@
       <c r="AJ185" s="20">
         <v>27.278199999999998</v>
       </c>
-      <c r="AK185" s="20" t="s">
-        <v>673</v>
+      <c r="AK185" s="20">
+        <v>29.254899999999999</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>674</v>
+        <v>588</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>675</v>
+        <v>589</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -23025,10 +22749,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -23129,17 +22853,17 @@
       <c r="AJ187" s="20">
         <v>0.74437993151704596</v>
       </c>
-      <c r="AK187" s="20" t="s">
-        <v>678</v>
+      <c r="AK187" s="20">
+        <v>0.76187573806712106</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>679</v>
+        <v>592</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>680</v>
+        <v>593</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -23247,10 +22971,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>682</v>
+        <v>595</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23351,17 +23075,17 @@
       <c r="AJ189" s="20">
         <v>44.695</v>
       </c>
-      <c r="AK189" s="20" t="s">
-        <v>683</v>
+      <c r="AK189" s="20">
+        <v>41.115000000000002</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>684</v>
+        <v>596</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>685</v>
+        <v>597</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23462,17 +23186,17 @@
       <c r="AJ190" s="22">
         <v>10837.66</v>
       </c>
-      <c r="AK190" s="22" t="s">
-        <v>686</v>
+      <c r="AK190" s="22">
+        <v>11400.209999999999</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>687</v>
+        <v>598</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>688</v>
+        <v>599</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23571,19 +23295,19 @@
         <v>112.34999999999999</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="AK191" s="20" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>691</v>
+        <v>602</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23643,58 +23367,58 @@
         <v>95760</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>696</v>
+        <v>607</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>697</v>
+        <v>608</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>698</v>
+        <v>609</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>705</v>
+        <v>616</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
       <c r="AK192" s="22" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>708</v>
+        <v>619</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23795,17 +23519,17 @@
       <c r="AJ193" s="20">
         <v>23145</v>
       </c>
-      <c r="AK193" s="20" t="s">
-        <v>710</v>
+      <c r="AK193" s="20">
+        <v>23100</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>711</v>
+        <v>621</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23906,17 +23630,17 @@
       <c r="AJ194" s="22">
         <v>952</v>
       </c>
-      <c r="AK194" s="22" t="s">
-        <v>713</v>
+      <c r="AK194" s="22">
+        <v>1220</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>714</v>
+        <v>623</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>715</v>
+        <v>624</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -24018,79 +23742,79 @@
         <v>16.673312500000002</v>
       </c>
       <c r="AK195" s="20" t="s">
-        <v>716</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>717</v>
+        <v>626</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>718</v>
+        <v>627</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>719</v>
+        <v>628</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>720</v>
+        <v>629</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>721</v>
+        <v>630</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>722</v>
+        <v>631</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>723</v>
+        <v>632</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>724</v>
+        <v>633</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>725</v>
+        <v>634</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>726</v>
+        <v>635</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>728</v>
+        <v>637</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>729</v>
+        <v>638</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>730</v>
+        <v>639</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>731</v>
+        <v>640</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>732</v>
+        <v>641</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>733</v>
+        <v>642</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>734</v>
+        <v>643</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>735</v>
+        <v>644</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>736</v>
+        <v>645</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>737</v>
+        <v>646</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>738</v>
+        <v>647</v>
       </c>
       <c r="Y196" s="22">
         <v>3.012</v>
@@ -24128,17 +23852,17 @@
       <c r="AJ196" s="22">
         <v>108.666</v>
       </c>
-      <c r="AK196" s="22" t="s">
-        <v>739</v>
+      <c r="AK196" s="22">
+        <v>142.4237</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>740</v>
+        <v>648</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>741</v>
+        <v>649</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -24246,10 +23970,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>742</v>
+        <v>650</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24357,10 +24081,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>744</v>
+        <v>652</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>745</v>
+        <v>653</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5Q.xlsx
+++ b/FOREX/data/FOREX_5Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -566,42 +566,168 @@
     <t>Units</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -611,18 +737,78 @@
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -635,9 +821,87 @@
     <t>...</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -647,6 +911,90 @@
     <t>...</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -656,6 +1004,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -674,90 +1028,399 @@
     <t>...</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -773,6 +1436,60 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -797,30 +1514,87 @@
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -833,880 +1607,76 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kazakhstan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Tajikistan, Rep. of</t>
@@ -9089,17 +9059,17 @@
       <c r="AJ63" s="20">
         <v>15.661099999999999</v>
       </c>
-      <c r="AK63" s="20" t="s">
-        <v>184</v>
+      <c r="AK63" s="20">
+        <v>18.218599999999999</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9207,10 +9177,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9318,10 +9288,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9429,10 +9399,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>192</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9540,10 +9510,10 @@
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9636,25 +9606,25 @@
         <v>41.316499999999998</v>
       </c>
       <c r="AH68" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI68" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="AI68" s="22" t="s">
+      <c r="AJ68" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="AJ68" s="22" t="s">
+      <c r="AK68" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="AK68" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9762,10 +9732,10 @@
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9813,70 +9783,70 @@
         <v>6.5164999999999997</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="T70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="U70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AJ70" s="22" t="s">
+      <c r="AK70" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="AK70" s="22" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9977,17 +9947,17 @@
       <c r="AJ71" s="20">
         <v>2.1177000000000001</v>
       </c>
-      <c r="AK71" s="20" t="s">
-        <v>224</v>
+      <c r="AK71" s="20">
+        <v>2.0916000000000001</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10095,10 +10065,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10206,10 +10176,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10311,16 +10281,16 @@
         <v>52.609999999999999</v>
       </c>
       <c r="AK74" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10428,10 +10398,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10529,20 +10499,20 @@
       <c r="AI76" s="22">
         <v>5.8662999999999998</v>
       </c>
-      <c r="AJ76" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK76" s="22" t="s">
-        <v>237</v>
+      <c r="AJ76" s="22">
+        <v>6.0061</v>
+      </c>
+      <c r="AK76" s="22">
+        <v>7.1121999999999996</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10650,10 +10620,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10701,70 +10671,70 @@
         <v>6.5164999999999997</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="T78" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="V78" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="W78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AK78" s="22" t="s">
         <v>256</v>
-      </c>
-      <c r="AH78" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI78" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ78" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK78" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10872,10 +10842,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10983,10 +10953,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11094,10 +11064,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11190,25 +11160,25 @@
         <v>9957.9716000000008</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11316,10 +11286,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11420,17 +11390,17 @@
       <c r="AJ84" s="22">
         <v>208.5</v>
       </c>
-      <c r="AK84" s="22" t="s">
-        <v>277</v>
+      <c r="AK84" s="22">
+        <v>208.5</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11531,17 +11501,17 @@
       <c r="AJ85" s="20">
         <v>99.866699999999994</v>
       </c>
-      <c r="AK85" s="20" t="s">
-        <v>280</v>
+      <c r="AK85" s="20">
+        <v>104.88</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11649,10 +11619,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11760,10 +11730,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11871,10 +11841,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11982,10 +11952,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12093,10 +12063,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12204,10 +12174,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12309,16 +12279,16 @@
         <v>1450</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12426,10 +12396,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12537,10 +12507,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12636,22 +12606,22 @@
         <v>146.7234</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AK95" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12759,10 +12729,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12870,10 +12840,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12981,10 +12951,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13092,10 +13062,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13203,10 +13173,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13314,10 +13284,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13425,10 +13395,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13536,10 +13506,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13647,10 +13617,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13758,10 +13728,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13869,10 +13839,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13980,10 +13950,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14091,10 +14061,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14190,22 +14160,22 @@
         <v>171.41829999999999</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14292,31 +14262,31 @@
         <v>1.3755158184319101</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14334,100 +14304,100 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="M111" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="N111" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="O111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="AF111" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG111" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14535,10 +14505,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14637,19 +14607,19 @@
         <v>822.165467511781</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14757,10 +14727,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14868,10 +14838,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14979,10 +14949,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15075,25 +15045,25 @@
         <v>35.920000000000002</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15201,10 +15171,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15312,10 +15282,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15423,10 +15393,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15534,10 +15504,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15645,10 +15615,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15756,10 +15726,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15867,10 +15837,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15972,16 +15942,16 @@
         <v>9.2804000000000002</v>
       </c>
       <c r="AK125" s="20">
-        <v>9.0606000000000009</v>
+        <v>9.6579999999999995</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16089,10 +16059,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16185,25 +16155,25 @@
         <v>1448.9000000000001</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16311,10 +16281,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16422,10 +16392,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16527,16 +16497,16 @@
         <v>121.39</v>
       </c>
       <c r="AK130" s="22" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16644,10 +16614,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16755,10 +16725,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16860,16 +16830,16 @@
         <v>35.521000000000001</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16977,10 +16947,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17079,19 +17049,19 @@
         <v>410.80000000000001</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17199,10 +17169,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17310,10 +17280,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17421,10 +17391,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17532,10 +17502,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17643,10 +17613,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17754,10 +17724,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17859,16 +17829,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17976,10 +17946,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18087,10 +18057,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18198,10 +18168,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18309,10 +18279,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18420,10 +18390,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18531,10 +18501,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18636,16 +18606,16 @@
         <v>74.292599999999993</v>
       </c>
       <c r="AK149" s="20" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18753,10 +18723,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18864,10 +18834,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18975,10 +18945,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19068,28 +19038,28 @@
         <v>19.9495</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AK153" s="20" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19197,10 +19167,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19308,10 +19278,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19419,10 +19389,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19523,17 +19493,17 @@
       <c r="AJ157" s="20">
         <v>14.6991</v>
       </c>
-      <c r="AK157" s="20" t="s">
-        <v>488</v>
+      <c r="AK157" s="20">
+        <v>14.2759568560214</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19631,20 +19601,20 @@
       <c r="AI158" s="22">
         <v>10570.98</v>
       </c>
-      <c r="AJ158" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK158" s="22" t="s">
-        <v>492</v>
+      <c r="AJ158" s="22">
+        <v>11224.605</v>
+      </c>
+      <c r="AK158" s="22">
+        <v>11889.18</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19752,10 +19722,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19863,10 +19833,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19974,10 +19944,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20037,58 +20007,58 @@
         <v>24305</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y162" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z162" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA162" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB162" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC162" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD162" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE162" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF162" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="AC162" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD162" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="AE162" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="AF162" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG162" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH162" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="AI162" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20196,10 +20166,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20301,16 +20271,16 @@
         <v>432.03399999999999</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20400,28 +20370,28 @@
         <v>186.40819999999999</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20529,10 +20499,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20640,10 +20610,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20751,10 +20721,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20847,25 +20817,25 @@
         <v>380.81</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20973,10 +20943,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21084,10 +21054,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21195,10 +21165,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21261,55 +21231,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z173" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA173" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB173" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC173" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD173" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE173" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF173" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG173" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>552</v>
-      </c>
-      <c r="AC173" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="AD173" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="AE173" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF173" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG173" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH173" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="AI173" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21410,17 +21380,17 @@
       <c r="AJ174" s="22">
         <v>27.690000000000001</v>
       </c>
-      <c r="AK174" s="22" t="s">
-        <v>564</v>
+      <c r="AK174" s="22">
+        <v>28.622</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21528,10 +21498,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21639,10 +21609,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21750,10 +21720,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21861,10 +21831,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21972,10 +21942,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22077,16 +22047,16 @@
         <v>2.27427791676143</v>
       </c>
       <c r="AK180" s="22" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22194,10 +22164,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22305,10 +22275,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22416,10 +22386,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22527,10 +22497,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22638,10 +22608,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22749,10 +22719,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22860,10 +22830,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22971,10 +22941,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23082,10 +23052,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23193,10 +23163,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23295,19 +23265,19 @@
         <v>112.34999999999999</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AK191" s="20" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23367,58 +23337,58 @@
         <v>95760</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA192" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB192" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC192" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD192" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE192" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF192" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG192" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="AB192" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="AC192" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="AD192" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE192" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF192" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="AG192" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23526,10 +23496,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23637,10 +23607,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23742,79 +23712,79 @@
         <v>16.673312500000002</v>
       </c>
       <c r="AK195" s="20" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="K196" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="L196" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="M196" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="N196" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="O196" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>637</v>
-      </c>
-      <c r="O196" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="P196" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q196" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="R196" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="S196" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="T196" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>647</v>
       </c>
       <c r="Y196" s="22">
         <v>3.012</v>
@@ -23859,10 +23829,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23970,10 +23940,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24081,10 +24051,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5Q.xlsx
+++ b/FOREX/data/FOREX_5Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -1265,130 +1265,325 @@
     <t>Units</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>New Caledonia</t>
+    <t>Niger</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nicaragua</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Niger</t>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nigeria</t>
+    <t>Peru</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>North Macedonia, Republic of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Norway</t>
+    <t>Senegal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Serbia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Pakistan</t>
+    <t>Seychelles</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Palau, Rep. of</t>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Panama</t>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Paraguay</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Philippines</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Poland, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Qatar</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Romania</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Russian Federation</t>
+    <t>Sudan</t>
   </si>
   <si>
     <t>Units</t>
@@ -1397,25 +1592,34 @@
     <t>...</t>
   </si>
   <si>
-    <t>Rwanda</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Samoa</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>San Marino, Rep. of</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+    <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>Units</t>
@@ -1436,60 +1640,147 @@
     <t>...</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Serbia, Rep. of</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Seychelles</t>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Singapore</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -1535,331 +1826,22 @@
     <t>...</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>South Sudan, Rep. of</t>
+    <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
+    <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Zimbabwe</t>
@@ -2451,7 +2433,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -13737,79 +13719,79 @@
         <v/>
       </c>
       <c r="E106" s="21">
-        <v>8035.8900000000003</v>
+        <v>8043</v>
       </c>
       <c r="F106" s="22">
-        <v>8046.7511999999997</v>
+        <v>8039</v>
       </c>
       <c r="G106" s="22">
-        <v>8052.5699999999997</v>
+        <v>8045</v>
       </c>
       <c r="H106" s="22">
-        <v>8097.7700000000004</v>
+        <v>8086</v>
       </c>
       <c r="I106" s="22">
-        <v>8117.7546342925298</v>
+        <v>8105</v>
       </c>
       <c r="J106" s="22">
-        <v>8120.3351096494598</v>
+        <v>8108</v>
       </c>
       <c r="K106" s="22">
-        <v>8197.5763059965702</v>
+        <v>8145</v>
       </c>
       <c r="L106" s="22">
-        <v>8172.5954036882504</v>
+        <v>8148</v>
       </c>
       <c r="M106" s="22">
-        <v>8136.9700000000003</v>
+        <v>8119</v>
       </c>
       <c r="N106" s="22">
-        <v>8124.21</v>
+        <v>8095</v>
       </c>
       <c r="O106" s="22">
-        <v>8226.3899999999994</v>
+        <v>8108</v>
       </c>
       <c r="P106" s="22">
-        <v>8337.8099999999995</v>
+        <v>8184</v>
       </c>
       <c r="Q106" s="22">
-        <v>8342.6313836653699</v>
+        <v>8209</v>
       </c>
       <c r="R106" s="22">
-        <v>8393.8570281415705</v>
+        <v>8246</v>
       </c>
       <c r="S106" s="22">
-        <v>8377.2203772701505</v>
+        <v>8293</v>
       </c>
       <c r="T106" s="22">
-        <v>8307.2576332108692</v>
+        <v>8293</v>
       </c>
       <c r="U106" s="22">
-        <v>8316.7747279796695</v>
+        <v>8293</v>
       </c>
       <c r="V106" s="22">
-        <v>8515.4264164126707</v>
+        <v>8419</v>
       </c>
       <c r="W106" s="22">
-        <v>8628.4982366951408</v>
+        <v>8497</v>
       </c>
       <c r="X106" s="22">
-        <v>8596.1763025086093</v>
+        <v>8530</v>
       </c>
       <c r="Y106" s="22">
-        <v>8671.5974586874709</v>
+        <v>8578</v>
       </c>
       <c r="Z106" s="22">
-        <v>8735.8045006861903</v>
+        <v>8641</v>
       </c>
       <c r="AA106" s="22">
-        <v>8876.8607729025207</v>
+        <v>8806</v>
       </c>
       <c r="AB106" s="22">
-        <v>9019.1014525165992</v>
+        <v>8861</v>
       </c>
       <c r="AC106" s="22">
-        <v>9267.2481340726608</v>
+        <v>8925</v>
       </c>
       <c r="AD106" s="22">
         <v>9019</v>
@@ -14055,7 +14037,7 @@
         <v>15.9054073613406</v>
       </c>
       <c r="AK108" s="22">
-        <v>14.57935</v>
+        <v>14.579342238395601</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
@@ -16496,17 +16478,17 @@
       <c r="AJ130" s="22">
         <v>121.39</v>
       </c>
-      <c r="AK130" s="22" t="s">
-        <v>417</v>
+      <c r="AK130" s="22">
+        <v>122.55</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16614,10 +16596,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16725,10 +16707,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16830,16 +16812,16 @@
         <v>35.521000000000001</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>425</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16947,10 +16929,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17049,19 +17031,19 @@
         <v>410.80000000000001</v>
       </c>
       <c r="AJ135" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK135" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="AK135" s="20" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>431</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>432</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17169,10 +17151,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17280,10 +17262,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17391,10 +17373,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17502,10 +17484,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>440</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17613,10 +17595,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17724,10 +17706,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17829,16 +17811,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17946,10 +17928,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18057,10 +18039,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>450</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>451</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18168,10 +18150,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>453</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18279,10 +18261,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>454</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18390,10 +18372,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>456</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>457</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18501,10 +18483,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>458</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>459</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18605,17 +18587,17 @@
       <c r="AJ149" s="20">
         <v>74.292599999999993</v>
       </c>
-      <c r="AK149" s="20" t="s">
-        <v>460</v>
+      <c r="AK149" s="20">
+        <v>84.085099999999997</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18723,10 +18705,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18834,10 +18816,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18945,10 +18927,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19038,28 +19020,28 @@
         <v>19.9495</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH153" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI153" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="AH153" s="20" t="s">
+      <c r="AJ153" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="AI153" s="20" t="s">
+      <c r="AK153" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="AJ153" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="AK153" s="20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19167,10 +19149,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19278,10 +19260,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19389,10 +19371,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19500,10 +19482,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19611,10 +19593,10 @@
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19722,10 +19704,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19833,10 +19815,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19944,10 +19926,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20007,58 +19989,58 @@
         <v>24305</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y162" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="Z162" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AA162" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AB162" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AC162" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AD162" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="AC162" s="22" t="s">
+      <c r="AE162" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="AD162" s="22" t="s">
+      <c r="AF162" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="AE162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="AF162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="AG162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="AH162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="AI162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>504</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20166,10 +20148,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20271,16 +20253,16 @@
         <v>432.03399999999999</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20370,28 +20352,28 @@
         <v>186.40819999999999</v>
       </c>
       <c r="AG165" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="AH165" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI165" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AH165" s="20" t="s">
+      <c r="AJ165" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AI165" s="20" t="s">
+      <c r="AK165" s="20" t="s">
         <v>516</v>
-      </c>
-      <c r="AJ165" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="AK165" s="20" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20499,10 +20481,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20610,10 +20592,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20721,10 +20703,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20817,25 +20799,25 @@
         <v>380.81</v>
       </c>
       <c r="AH169" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI169" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ169" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="AI169" s="20" t="s">
+      <c r="AK169" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="AJ169" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK169" s="20" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20943,10 +20925,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21054,10 +21036,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21165,10 +21147,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21231,55 +21213,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z173" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AA173" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AB173" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AC173" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AD173" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AC173" s="20" t="s">
+      <c r="AE173" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="AD173" s="20" t="s">
+      <c r="AF173" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="AE173" s="20" t="s">
+      <c r="AG173" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="AF173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="AG173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="AH173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="AI173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>550</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21387,10 +21369,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21498,10 +21480,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21609,10 +21591,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21720,10 +21702,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21831,10 +21813,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21942,10 +21924,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22046,17 +22028,17 @@
       <c r="AJ180" s="22">
         <v>2.27427791676143</v>
       </c>
-      <c r="AK180" s="22" t="s">
-        <v>567</v>
+      <c r="AK180" s="22">
+        <v>2.2482014388489202</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22164,10 +22146,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22275,10 +22257,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22386,10 +22368,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22497,10 +22479,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22608,10 +22590,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22719,10 +22701,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22830,10 +22812,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22941,10 +22923,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23052,10 +23034,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23163,10 +23145,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23264,20 +23246,20 @@
       <c r="AI191" s="20">
         <v>112.34999999999999</v>
       </c>
-      <c r="AJ191" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="AK191" s="20" t="s">
-        <v>591</v>
+      <c r="AJ191" s="20">
+        <v>112.2</v>
+      </c>
+      <c r="AK191" s="20">
+        <v>110.31999999999999</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23337,58 +23319,58 @@
         <v>95760</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA192" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB192" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AC192" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AD192" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AE192" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AF192" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="AB192" s="22" t="s">
+      <c r="AG192" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="AC192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="AD192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="AE192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="AF192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>603</v>
-      </c>
-      <c r="AG192" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23496,10 +23478,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23607,10 +23589,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23711,80 +23693,80 @@
       <c r="AJ195" s="20">
         <v>16.673312500000002</v>
       </c>
-      <c r="AK195" s="20" t="s">
-        <v>615</v>
+      <c r="AK195" s="20">
+        <v>18.091906250000001</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="K196" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="L196" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="M196" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="N196" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="O196" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="P196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="Q196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="R196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>631</v>
-      </c>
-      <c r="S196" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="T196" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>637</v>
       </c>
       <c r="Y196" s="22">
         <v>3.012</v>
@@ -23829,10 +23811,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23940,10 +23922,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24051,10 +24033,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5Q.xlsx
+++ b/FOREX/data/FOREX_5Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -701,28 +701,106 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
@@ -740,175 +818,85 @@
     <t>...</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Grenada</t>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>Israel</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Japan</t>
@@ -2433,7 +2421,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -10262,17 +10250,17 @@
       <c r="AJ74" s="22">
         <v>52.609999999999999</v>
       </c>
-      <c r="AK74" s="22" t="s">
-        <v>229</v>
+      <c r="AK74" s="22">
+        <v>52.979999999999997</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10380,10 +10368,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10491,10 +10479,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10602,10 +10590,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>237</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10653,70 +10641,70 @@
         <v>6.5164999999999997</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="T78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="U78" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="V78" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="W78" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AH78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="AI78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="AJ78" s="22" t="s">
+      <c r="AK78" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="AK78" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10824,10 +10812,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10935,10 +10923,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11046,10 +11034,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11142,25 +11130,25 @@
         <v>9957.9716000000008</v>
       </c>
       <c r="AH82" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI82" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="AI82" s="22" t="s">
+      <c r="AJ82" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="AJ82" s="22" t="s">
+      <c r="AK82" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="AK82" s="22" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11268,10 +11256,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11379,10 +11367,10 @@
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11490,10 +11478,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11601,10 +11589,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11712,10 +11700,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11823,10 +11811,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11934,10 +11922,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12045,10 +12033,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12156,10 +12144,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12261,16 +12249,16 @@
         <v>1450</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12378,10 +12366,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12489,10 +12477,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12587,23 +12575,23 @@
       <c r="AH95" s="20">
         <v>146.7234</v>
       </c>
-      <c r="AI95" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ95" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AK95" s="20" t="s">
-        <v>298</v>
+      <c r="AI95" s="20">
+        <v>146.34639999999999</v>
+      </c>
+      <c r="AJ95" s="20">
+        <v>153.91995</v>
+      </c>
+      <c r="AK95" s="20">
+        <v>153.30584999999999</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12711,10 +12699,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12822,10 +12810,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12933,10 +12921,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13044,10 +13032,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13155,10 +13143,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13266,10 +13254,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13377,10 +13365,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13488,10 +13476,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13599,10 +13587,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13710,10 +13698,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13821,10 +13809,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13932,10 +13920,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14043,10 +14031,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14142,22 +14130,22 @@
         <v>171.41829999999999</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14244,31 +14232,31 @@
         <v>1.3755158184319101</v>
       </c>
       <c r="AF110" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG110" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH110" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI110" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ110" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="AG110" s="22" t="s">
+      <c r="AK110" s="22" t="s">
         <v>333</v>
-      </c>
-      <c r="AH110" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="AI110" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AJ110" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK110" s="22" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14286,100 +14274,100 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="M111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="N111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="AF111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AG111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14487,10 +14475,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14589,19 +14577,19 @@
         <v>822.165467511781</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14709,10 +14697,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14820,10 +14808,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14931,10 +14919,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15027,25 +15015,25 @@
         <v>35.920000000000002</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15153,10 +15141,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15264,10 +15252,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15375,10 +15363,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15486,10 +15474,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15597,10 +15585,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15708,10 +15696,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15819,10 +15807,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15930,10 +15918,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16041,10 +16029,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16137,25 +16125,25 @@
         <v>1448.9000000000001</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16263,10 +16251,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16374,10 +16362,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16485,10 +16473,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16596,10 +16584,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16707,10 +16695,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16812,16 +16800,16 @@
         <v>35.521000000000001</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16929,10 +16917,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17031,19 +17019,19 @@
         <v>410.80000000000001</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17151,10 +17139,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17262,10 +17250,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17373,10 +17361,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17484,10 +17472,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17595,10 +17583,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17706,10 +17694,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17811,16 +17799,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17928,10 +17916,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18039,10 +18027,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18150,10 +18138,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18261,10 +18249,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18372,10 +18360,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18483,10 +18471,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18594,10 +18582,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18705,10 +18693,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18816,10 +18804,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18927,10 +18915,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19020,28 +19008,28 @@
         <v>19.9495</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH153" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI153" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ153" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="AK153" s="20" t="s">
         <v>467</v>
-      </c>
-      <c r="AH153" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI153" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ153" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AK153" s="20" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19149,10 +19137,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19260,10 +19248,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19371,10 +19359,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19482,10 +19470,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19593,10 +19581,10 @@
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19704,10 +19692,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19815,10 +19803,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19926,10 +19914,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19989,58 +19977,58 @@
         <v>24305</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y162" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z162" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA162" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="AB162" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AC162" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AD162" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AE162" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AF162" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="AC162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="AD162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="AE162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="AF162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="AG162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>500</v>
-      </c>
-      <c r="AH162" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="AI162" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20148,10 +20136,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20253,16 +20241,16 @@
         <v>432.03399999999999</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20352,28 +20340,28 @@
         <v>186.40819999999999</v>
       </c>
       <c r="AG165" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="AH165" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="AI165" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ165" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="AK165" s="20" t="s">
         <v>512</v>
-      </c>
-      <c r="AH165" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="AI165" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="AJ165" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="AK165" s="20" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20481,10 +20469,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20592,10 +20580,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20703,10 +20691,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20799,25 +20787,25 @@
         <v>380.81</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20925,10 +20913,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21036,10 +21024,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21147,10 +21135,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21213,55 +21201,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z173" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA173" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB173" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AC173" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AD173" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AE173" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AF173" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AC173" s="20" t="s">
+      <c r="AG173" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AD173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AE173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="AF173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="AG173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>546</v>
-      </c>
-      <c r="AH173" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="AI173" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21369,10 +21357,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21480,10 +21468,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21591,10 +21579,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21702,10 +21690,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21813,10 +21801,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21924,10 +21912,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22035,10 +22023,10 @@
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22146,10 +22134,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22257,10 +22245,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22368,10 +22356,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22479,10 +22467,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22590,10 +22578,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22701,10 +22689,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22812,10 +22800,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22923,10 +22911,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23034,10 +23022,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23145,10 +23133,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23256,10 +23244,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23319,58 +23307,58 @@
         <v>95760</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA192" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AB192" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AC192" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AD192" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AE192" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="AB192" s="22" t="s">
+      <c r="AF192" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="AC192" s="22" t="s">
+      <c r="AG192" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="AD192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="AE192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="AF192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="AG192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>599</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23478,10 +23466,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23589,10 +23577,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23700,73 +23688,73 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="I196" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="J196" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="K196" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="L196" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="M196" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="N196" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="O196" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="P196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="Q196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="R196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="S196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="T196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>627</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>631</v>
       </c>
       <c r="Y196" s="22">
         <v>3.012</v>
@@ -23811,10 +23799,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23922,10 +23910,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24033,10 +24021,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5Q.xlsx
+++ b/FOREX/data/FOREX_5Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="641">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -131,6 +131,9 @@
     <t>2022Q1</t>
   </si>
   <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -398,204 +404,591 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Comoros, Union of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>Congo, Dem. Rep. of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Congo, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Côte d'Ivoire</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>Croatia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Curaçao and Sint Maarten</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Curaçao, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>Czech Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>Denmark</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Dominica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Gambia, The</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Croatia, Rep. of</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao and Sint Maarten</t>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Czech Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominican Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep. of</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>India</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -608,13 +1001,16 @@
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>Libya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
   <si>
     <t>Units</t>
@@ -677,54 +1073,144 @@
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mauritania, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -740,6 +1226,54 @@
     <t>...</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nauru, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -749,15 +1283,123 @@
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -776,36 +1418,171 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -818,955 +1595,199 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep. of</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Isle of Man</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jamaica</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>Uganda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jersey</t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kazakhstan, Rep. of</t>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kenya</t>
+    <t>United States</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kiribati</t>
+    <t>Uruguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Korea, Rep. of</t>
+    <t>Uzbekistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kosovo, Rep. of</t>
+    <t>Vanuatu</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kuwait</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>...</t>
@@ -2419,7 +2440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK199"/>
+  <dimension ref="A1:AL199"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2464,6 +2485,7 @@
     <col min="35" max="35" width="9.710938" customWidth="1"/>
     <col min="36" max="36" width="9.710938" customWidth="1"/>
     <col min="37" max="37" width="9.710938" customWidth="1"/>
+    <col min="38" max="38" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2504,6 +2526,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2545,6 +2568,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2586,6 +2610,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -2625,6 +2650,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -2666,6 +2692,7 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -2705,6 +2732,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -2813,17 +2841,20 @@
       <c r="AJ7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK7" s="10" t="s">
+      <c r="AK7" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -2916,25 +2947,28 @@
         <v>77.192499999999995</v>
       </c>
       <c r="AH8" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ8" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AL8" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3037,15 +3071,18 @@
       </c>
       <c r="AK9" s="20">
         <v>109.28</v>
+      </c>
+      <c r="AL9" s="20">
+        <v>114.22</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3148,99 +3185,102 @@
       </c>
       <c r="AK10" s="22">
         <v>142.46000000000001</v>
+      </c>
+      <c r="AL10" s="22">
+        <v>146.27289999999999</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF11" s="20">
         <v>0.81492950859750601</v>
@@ -3259,15 +3299,18 @@
       </c>
       <c r="AK11" s="20">
         <v>0.90081974596883196</v>
+      </c>
+      <c r="AL11" s="20">
+        <v>0.96274188889958601</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3370,15 +3413,18 @@
       </c>
       <c r="AK12" s="22">
         <v>446.43865</v>
+      </c>
+      <c r="AL12" s="22">
+        <v>428.20859999999999</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3480,16 +3526,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK13" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL13" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3591,16 +3640,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK14" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL14" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -3703,15 +3755,18 @@
       </c>
       <c r="AK15" s="20">
         <v>110.91</v>
+      </c>
+      <c r="AL15" s="20">
+        <v>125.13</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -3814,15 +3869,18 @@
       </c>
       <c r="AK16" s="22">
         <v>485.91000000000003</v>
+      </c>
+      <c r="AL16" s="22">
+        <v>407.20999999999998</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -3924,16 +3982,19 @@
         <v>1.79</v>
       </c>
       <c r="AK17" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="AL17" s="20">
         <v>1.79</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -4036,15 +4097,18 @@
       </c>
       <c r="AK18" s="22">
         <v>1.33654103180968</v>
+      </c>
+      <c r="AL18" s="22">
+        <v>1.4515894904920901</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -4146,16 +4210,19 @@
         <v>1.7</v>
       </c>
       <c r="AK19" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="AL19" s="20">
         <v>1.7</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4257,16 +4324,19 @@
         <v>1</v>
       </c>
       <c r="AK20" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4368,16 +4438,19 @@
         <v>0.376</v>
       </c>
       <c r="AK21" s="20">
+        <v>0.376</v>
+      </c>
+      <c r="AL21" s="20">
         <v>0.376</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4480,15 +4553,18 @@
       </c>
       <c r="AK22" s="22">
         <v>86.200000000000003</v>
+      </c>
+      <c r="AL22" s="22">
+        <v>93.450000000000003</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4590,16 +4666,19 @@
         <v>2</v>
       </c>
       <c r="AK23" s="20">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -4702,15 +4781,18 @@
       </c>
       <c r="AK24" s="22">
         <v>2.9731999999999998</v>
+      </c>
+      <c r="AL24" s="22">
+        <v>2.5234999999999999</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -4812,16 +4894,19 @@
         <v>2</v>
       </c>
       <c r="AK25" s="20">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -4924,15 +5009,18 @@
       </c>
       <c r="AK26" s="22">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL26" s="22">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -5034,16 +5122,19 @@
         <v>1</v>
       </c>
       <c r="AK27" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -5146,15 +5237,18 @@
       </c>
       <c r="AK28" s="22">
         <v>75.807100000000005</v>
+      </c>
+      <c r="AL28" s="22">
+        <v>78.942099999999996</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5256,16 +5350,19 @@
         <v>6.9100000000000001</v>
       </c>
       <c r="AK29" s="20">
+        <v>6.9100000000000001</v>
+      </c>
+      <c r="AL29" s="20">
         <v>6.9100000000000001</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5368,15 +5465,18 @@
       </c>
       <c r="AK30" s="22">
         <v>1.7578910000000001</v>
+      </c>
+      <c r="AL30" s="22">
+        <v>1.8596839999999999</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5479,15 +5579,18 @@
       </c>
       <c r="AK31" s="20">
         <v>11.411099999999999</v>
+      </c>
+      <c r="AL31" s="20">
+        <v>12.356</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5590,15 +5693,18 @@
       </c>
       <c r="AK32" s="22">
         <v>4.7371999999999996</v>
+      </c>
+      <c r="AL32" s="22">
+        <v>5.2374000000000001</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -5701,15 +5807,18 @@
       </c>
       <c r="AK33" s="20">
         <v>1.3533999999999999</v>
+      </c>
+      <c r="AL33" s="20">
+        <v>1.3917999999999999</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -5812,15 +5921,18 @@
       </c>
       <c r="AK34" s="22">
         <v>1.7619</v>
+      </c>
+      <c r="AL34" s="22">
+        <v>1.883</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -5923,15 +6035,18 @@
       </c>
       <c r="AK35" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL35" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -6032,17 +6147,20 @@
       <c r="AJ36" s="22">
         <v>2006.0999999999999</v>
       </c>
-      <c r="AK36" s="22" t="s">
-        <v>128</v>
+      <c r="AK36" s="22">
+        <v>2020.3499999999999</v>
+      </c>
+      <c r="AL36" s="22">
+        <v>2033.55</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6145,15 +6263,18 @@
       </c>
       <c r="AK37" s="20">
         <v>100.223</v>
+      </c>
+      <c r="AL37" s="20">
+        <v>104.84453999999999</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6256,15 +6377,18 @@
       </c>
       <c r="AK38" s="22">
         <v>4073</v>
+      </c>
+      <c r="AL38" s="22">
+        <v>4095.5</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6367,15 +6491,18 @@
       </c>
       <c r="AK39" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL39" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6478,15 +6605,18 @@
       </c>
       <c r="AK40" s="22">
         <v>1.2496</v>
+      </c>
+      <c r="AL40" s="22">
+        <v>1.2886</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6588,16 +6718,19 @@
         <v>0.83333000000000002</v>
       </c>
       <c r="AK41" s="20">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="AL41" s="20">
         <v>0.83333000000000002</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6700,15 +6833,18 @@
       </c>
       <c r="AK42" s="22">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL42" s="22">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6811,15 +6947,18 @@
       </c>
       <c r="AK43" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL43" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6922,15 +7061,18 @@
       </c>
       <c r="AK44" s="22">
         <v>787.15999999999997</v>
+      </c>
+      <c r="AL44" s="22">
+        <v>919.97000000000003</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -7033,15 +7175,18 @@
       </c>
       <c r="AK45" s="20">
         <v>7.8310000000000004</v>
+      </c>
+      <c r="AL45" s="20">
+        <v>7.8470000000000004</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7144,15 +7289,18 @@
       </c>
       <c r="AK46" s="22">
         <v>8.0623000000000005</v>
+      </c>
+      <c r="AL46" s="22">
+        <v>8.0833999999999993</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7255,15 +7403,18 @@
       </c>
       <c r="AK47" s="20">
         <v>6.3426999999999998</v>
+      </c>
+      <c r="AL47" s="20">
+        <v>6.6947999999999999</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7365,16 +7516,19 @@
         <v>3997.71</v>
       </c>
       <c r="AK48" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AL48" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7477,15 +7631,18 @@
       </c>
       <c r="AK49" s="20">
         <v>443.17426357985801</v>
+      </c>
+      <c r="AL49" s="20">
+        <v>473.63796091267898</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7588,15 +7745,18 @@
       </c>
       <c r="AK50" s="22">
         <v>1999.7509</v>
+      </c>
+      <c r="AL50" s="22">
+        <v>2004.7407000000001</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7699,15 +7859,18 @@
       </c>
       <c r="AK51" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL51" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7810,15 +7973,18 @@
       </c>
       <c r="AK52" s="22">
         <v>663.78999999999996</v>
+      </c>
+      <c r="AL52" s="22">
+        <v>688.505</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7921,15 +8087,18 @@
       </c>
       <c r="AK53" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL53" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -8032,15 +8201,18 @@
       </c>
       <c r="AK54" s="22">
         <v>6.8062189999999996</v>
+      </c>
+      <c r="AL54" s="22">
+        <v>7.1634690000000001</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8142,16 +8314,19 @@
         <v>1.79</v>
       </c>
       <c r="AK55" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="AL55" s="20">
         <v>1.79</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8253,16 +8428,19 @@
         <v>1.79</v>
       </c>
       <c r="AK56" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="AL56" s="22">
         <v>1.79</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8365,15 +8543,18 @@
       </c>
       <c r="AK57" s="20">
         <v>21.963000000000001</v>
+      </c>
+      <c r="AL57" s="20">
+        <v>23.821000000000002</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8476,15 +8657,18 @@
       </c>
       <c r="AK58" s="22">
         <v>6.7001999999999997</v>
+      </c>
+      <c r="AL58" s="22">
+        <v>7.1619999999999999</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8586,16 +8770,19 @@
         <v>177.721</v>
       </c>
       <c r="AK59" s="20">
+        <v>177.721</v>
+      </c>
+      <c r="AL59" s="20">
         <v>177.721</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8697,16 +8884,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK60" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL60" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8809,15 +8999,18 @@
       </c>
       <c r="AK61" s="20">
         <v>55.150500000000001</v>
+      </c>
+      <c r="AL61" s="20">
+        <v>54.916200000000003</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8919,16 +9112,19 @@
         <v>1</v>
       </c>
       <c r="AK62" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -9031,15 +9227,18 @@
       </c>
       <c r="AK63" s="20">
         <v>18.218599999999999</v>
+      </c>
+      <c r="AL63" s="20">
+        <v>18.746400000000001</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9141,16 +9340,19 @@
         <v>1</v>
       </c>
       <c r="AK64" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9253,15 +9455,18 @@
       </c>
       <c r="AK65" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL65" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9363,16 +9568,19 @@
         <v>15.074999999999999</v>
       </c>
       <c r="AK66" s="22">
+        <v>15.074999999999999</v>
+      </c>
+      <c r="AL66" s="22">
         <v>15.074999999999999</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9475,15 +9683,18 @@
       </c>
       <c r="AK67" s="20">
         <v>14.57935</v>
+      </c>
+      <c r="AL67" s="20">
+        <v>16.362300000000001</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9575,26 +9786,29 @@
       <c r="AG68" s="22">
         <v>41.316499999999998</v>
       </c>
-      <c r="AH68" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI68" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ68" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK68" s="22" t="s">
-        <v>197</v>
+      <c r="AH68" s="22">
+        <v>43.691000000000003</v>
+      </c>
+      <c r="AI68" s="22">
+        <v>46.100700000000003</v>
+      </c>
+      <c r="AJ68" s="22">
+        <v>49.193600000000004</v>
+      </c>
+      <c r="AK68" s="22">
+        <v>50.986699999999999</v>
+      </c>
+      <c r="AL68" s="22">
+        <v>51.9938</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9697,15 +9911,18 @@
       </c>
       <c r="AK69" s="20">
         <v>0.90081974596883196</v>
+      </c>
+      <c r="AL69" s="20">
+        <v>0.96274188889958601</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9753,70 +9970,73 @@
         <v>6.5164999999999997</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="T70" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U70" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AK70" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="AJ70" s="22" t="s">
+      <c r="AL70" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="AK70" s="22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9919,15 +10139,18 @@
       </c>
       <c r="AK71" s="20">
         <v>2.0916000000000001</v>
+      </c>
+      <c r="AL71" s="20">
+        <v>2.2206999999999999</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10030,15 +10253,18 @@
       </c>
       <c r="AK72" s="22">
         <v>107.49635168002899</v>
+      </c>
+      <c r="AL72" s="22">
+        <v>114.88562626359899</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10141,15 +10367,18 @@
       </c>
       <c r="AK73" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL73" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10252,6 +10481,9 @@
       </c>
       <c r="AK74" s="22">
         <v>52.979999999999997</v>
+      </c>
+      <c r="AL74" s="22" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
@@ -10364,6 +10596,9 @@
       <c r="AK75" s="20">
         <v>3.1013000000000002</v>
       </c>
+      <c r="AL75" s="20">
+        <v>2.9289000000000001</v>
+      </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
@@ -10475,6 +10710,9 @@
       <c r="AK76" s="22">
         <v>7.1121999999999996</v>
       </c>
+      <c r="AL76" s="22">
+        <v>7.2305000000000001</v>
+      </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
@@ -10586,6 +10824,9 @@
       <c r="AK77" s="20">
         <v>0.76187573806712106</v>
       </c>
+      <c r="AL77" s="20">
+        <v>0.82583202576595904</v>
+      </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
@@ -10697,14 +10938,17 @@
       <c r="AK78" s="22" t="s">
         <v>255</v>
       </c>
+      <c r="AL78" s="22" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10806,16 +11050,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK79" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL79" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10918,15 +11165,18 @@
       </c>
       <c r="AK80" s="22">
         <v>7.6777499999999996</v>
+      </c>
+      <c r="AL80" s="22">
+        <v>7.7549849999999996</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11029,15 +11279,18 @@
       </c>
       <c r="AK81" s="20">
         <v>0.76187573806712106</v>
+      </c>
+      <c r="AL81" s="20">
+        <v>0.82583202576595904</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11130,25 +11383,28 @@
         <v>9957.9716000000008</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="AL82" s="22" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11251,15 +11507,18 @@
       </c>
       <c r="AK83" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL83" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11361,16 +11620,19 @@
         <v>208.5</v>
       </c>
       <c r="AK84" s="22">
+        <v>208.5</v>
+      </c>
+      <c r="AL84" s="22">
         <v>208.5</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11473,15 +11735,18 @@
       </c>
       <c r="AK85" s="20">
         <v>104.88</v>
+      </c>
+      <c r="AL85" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11584,15 +11849,18 @@
       </c>
       <c r="AK86" s="22">
         <v>24.340599999999998</v>
+      </c>
+      <c r="AL86" s="22">
+        <v>24.412400000000002</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11695,15 +11963,18 @@
       </c>
       <c r="AK87" s="20">
         <v>332.08999999999997</v>
+      </c>
+      <c r="AL87" s="20">
+        <v>379.99000000000001</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11806,15 +12077,18 @@
       </c>
       <c r="AK88" s="22">
         <v>127.92</v>
+      </c>
+      <c r="AL88" s="22">
+        <v>133.72</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11917,15 +12191,18 @@
       </c>
       <c r="AK89" s="20">
         <v>75.807100000000005</v>
+      </c>
+      <c r="AL89" s="20">
+        <v>78.942099999999996</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12028,15 +12305,18 @@
       </c>
       <c r="AK90" s="22">
         <v>14349.004999999999</v>
+      </c>
+      <c r="AL90" s="22">
+        <v>14848</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12138,16 +12418,19 @@
         <v>42000</v>
       </c>
       <c r="AK91" s="20">
+        <v>42000</v>
+      </c>
+      <c r="AL91" s="20">
         <v>42000</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12248,17 +12531,20 @@
       <c r="AJ92" s="22">
         <v>1450</v>
       </c>
-      <c r="AK92" s="22" t="s">
-        <v>288</v>
+      <c r="AK92" s="22">
+        <v>1450</v>
+      </c>
+      <c r="AL92" s="22">
+        <v>1450</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12361,15 +12647,18 @@
       </c>
       <c r="AK93" s="20">
         <v>0.76187573806712106</v>
+      </c>
+      <c r="AL93" s="20">
+        <v>0.82583202576595904</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12472,15 +12761,18 @@
       </c>
       <c r="AK94" s="22">
         <v>3.1760000000000002</v>
+      </c>
+      <c r="AL94" s="22">
+        <v>3.5</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12583,15 +12875,18 @@
       </c>
       <c r="AK95" s="20">
         <v>153.30584999999999</v>
+      </c>
+      <c r="AL95" s="20">
+        <v>150.54409999999999</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12694,15 +12989,18 @@
       </c>
       <c r="AK96" s="22">
         <v>122.40000000000001</v>
+      </c>
+      <c r="AL96" s="22">
+        <v>136.63</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12805,15 +13103,18 @@
       </c>
       <c r="AK97" s="20">
         <v>0.76187573806712106</v>
+      </c>
+      <c r="AL97" s="20">
+        <v>0.82583202576595904</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12915,16 +13216,19 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="AK98" s="22">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="AL98" s="22">
         <v>0.70999999999999996</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13027,15 +13331,18 @@
       </c>
       <c r="AK99" s="20">
         <v>466.31</v>
+      </c>
+      <c r="AL99" s="20">
+        <v>470.33999999999997</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13138,15 +13445,18 @@
       </c>
       <c r="AK100" s="22">
         <v>114.95125</v>
+      </c>
+      <c r="AL100" s="22">
+        <v>117.832352941176</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13249,15 +13559,18 @@
       </c>
       <c r="AK101" s="20">
         <v>1.33654103180968</v>
+      </c>
+      <c r="AL101" s="20">
+        <v>1.4515894904920901</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13360,15 +13673,18 @@
       </c>
       <c r="AK102" s="22">
         <v>1210.8</v>
+      </c>
+      <c r="AL102" s="22">
+        <v>1292.9000000000001</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13471,15 +13787,18 @@
       </c>
       <c r="AK103" s="20">
         <v>0.90081974596883196</v>
+      </c>
+      <c r="AL103" s="20">
+        <v>0.96274188889958601</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13582,15 +13901,18 @@
       </c>
       <c r="AK104" s="22">
         <v>0.3039</v>
+      </c>
+      <c r="AL104" s="22">
+        <v>0.30669999999999997</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13693,15 +14015,18 @@
       </c>
       <c r="AK105" s="20">
         <v>83.308999999999997</v>
+      </c>
+      <c r="AL105" s="20">
+        <v>79.5</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13804,15 +14129,18 @@
       </c>
       <c r="AK106" s="22">
         <v>11583</v>
+      </c>
+      <c r="AL106" s="22">
+        <v>14812</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13914,16 +14242,19 @@
         <v>1507.5</v>
       </c>
       <c r="AK107" s="20">
+        <v>1507.5</v>
+      </c>
+      <c r="AL107" s="20">
         <v>1507.5</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14026,15 +14357,18 @@
       </c>
       <c r="AK108" s="22">
         <v>14.579342238395601</v>
+      </c>
+      <c r="AL108" s="22">
+        <v>16.362300604914299</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14130,22 +14464,25 @@
         <v>171.41829999999999</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
+      </c>
+      <c r="AL109" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14231,32 +14568,35 @@
       <c r="AE110" s="22">
         <v>1.3755158184319101</v>
       </c>
-      <c r="AF110" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG110" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH110" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI110" s="22" t="s">
+      <c r="AF110" s="22">
+        <v>1.3366</v>
+      </c>
+      <c r="AG110" s="22">
+        <v>4.5412999999999997</v>
+      </c>
+      <c r="AH110" s="22">
+        <v>4.5065</v>
+      </c>
+      <c r="AI110" s="22">
+        <v>4.5598999999999998</v>
+      </c>
+      <c r="AJ110" s="22">
+        <v>4.5960999999999999</v>
+      </c>
+      <c r="AK110" s="22">
+        <v>4.6426999999999996</v>
+      </c>
+      <c r="AL110" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="AJ110" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK110" s="22" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14274,100 +14614,103 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K111" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="L111" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="M111" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="N111" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="AF111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="AG111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="AH111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="AI111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="AJ111" s="20" t="s">
+      <c r="AL111" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14470,15 +14813,18 @@
       </c>
       <c r="AK112" s="22">
         <v>3974.9699999999998</v>
+      </c>
+      <c r="AL112" s="22">
+        <v>4074.5700000000002</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14577,9 +14923,12 @@
         <v>822.165467511781</v>
       </c>
       <c r="AJ113" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK113" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="AK113" s="20" t="s">
+      <c r="AL113" s="20" t="s">
         <v>370</v>
       </c>
     </row>
@@ -14693,6 +15042,9 @@
       <c r="AK114" s="22">
         <v>4.2039999999999997</v>
       </c>
+      <c r="AL114" s="22">
+        <v>4.4055</v>
+      </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
@@ -14804,6 +15156,9 @@
       <c r="AK115" s="20">
         <v>15.369999999999999</v>
       </c>
+      <c r="AL115" s="20">
+        <v>15.41</v>
+      </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
@@ -14915,6 +15270,9 @@
       <c r="AK116" s="22">
         <v>590.899018106477</v>
       </c>
+      <c r="AL116" s="22">
+        <v>631.51728121690599</v>
+      </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
@@ -15014,26 +15372,29 @@
       <c r="AG117" s="20">
         <v>35.920000000000002</v>
       </c>
-      <c r="AH117" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI117" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ117" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="AK117" s="20" t="s">
-        <v>382</v>
+      <c r="AH117" s="20">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="AI117" s="20">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="AJ117" s="20">
+        <v>36.219999999999999</v>
+      </c>
+      <c r="AK117" s="20">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AL117" s="20">
+        <v>36.340000000000003</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15136,15 +15497,18 @@
       </c>
       <c r="AK118" s="22">
         <v>44.483899999999998</v>
+      </c>
+      <c r="AL118" s="22">
+        <v>45.295999999999999</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15247,15 +15611,18 @@
       </c>
       <c r="AK119" s="20">
         <v>19.994199999999999</v>
+      </c>
+      <c r="AL119" s="20">
+        <v>19.9847</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15357,16 +15724,19 @@
         <v>1</v>
       </c>
       <c r="AK120" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL120" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15469,15 +15839,18 @@
       </c>
       <c r="AK121" s="20">
         <v>18.322299999999998</v>
+      </c>
+      <c r="AL121" s="20">
+        <v>19.121600000000001</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15580,15 +15953,18 @@
       </c>
       <c r="AK122" s="22">
         <v>2948.46</v>
+      </c>
+      <c r="AL122" s="22">
+        <v>3134.0999999999999</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15691,15 +16067,18 @@
       </c>
       <c r="AK123" s="20">
         <v>0.90081974596883196</v>
+      </c>
+      <c r="AL123" s="20">
+        <v>0.96274188889958601</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15801,16 +16180,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK124" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL124" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15913,15 +16295,18 @@
       </c>
       <c r="AK125" s="20">
         <v>9.6579999999999995</v>
+      </c>
+      <c r="AL125" s="20">
+        <v>10.154</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16024,15 +16409,18 @@
       </c>
       <c r="AK126" s="22">
         <v>63.829999999999998</v>
+      </c>
+      <c r="AL126" s="22">
+        <v>63.859999999999999</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16125,25 +16513,28 @@
         <v>1448.9000000000001</v>
       </c>
       <c r="AH127" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI127" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ127" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="AK127" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL127" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="AI127" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ127" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK127" s="20" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16246,15 +16637,18 @@
       </c>
       <c r="AK128" s="22">
         <v>14.5144</v>
+      </c>
+      <c r="AL128" s="22">
+        <v>16.245850000000001</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16357,15 +16751,18 @@
       </c>
       <c r="AK129" s="20">
         <v>1.33654103180968</v>
+      </c>
+      <c r="AL129" s="20">
+        <v>1.4515894904920901</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16468,15 +16865,18 @@
       </c>
       <c r="AK130" s="22">
         <v>122.55</v>
+      </c>
+      <c r="AL130" s="22">
+        <v>124.86</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16579,15 +16979,18 @@
       </c>
       <c r="AK131" s="20">
         <v>107.49635168002899</v>
+      </c>
+      <c r="AL131" s="20">
+        <v>114.88562626359899</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16690,15 +17093,18 @@
       </c>
       <c r="AK132" s="22">
         <v>1.4337</v>
+      </c>
+      <c r="AL132" s="22">
+        <v>1.6093</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16799,17 +17205,20 @@
       <c r="AJ133" s="20">
         <v>35.521000000000001</v>
       </c>
-      <c r="AK133" s="20" t="s">
-        <v>419</v>
+      <c r="AK133" s="20">
+        <v>35.694800000000001</v>
+      </c>
+      <c r="AL133" s="20">
+        <v>35.843299999999999</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16912,15 +17321,18 @@
       </c>
       <c r="AK134" s="22">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL134" s="22">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17019,19 +17431,22 @@
         <v>410.80000000000001</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
+      </c>
+      <c r="AL135" s="20" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17134,15 +17549,18 @@
       </c>
       <c r="AK136" s="22">
         <v>55.4512</v>
+      </c>
+      <c r="AL136" s="22">
+        <v>58.662199999999999</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17245,15 +17663,18 @@
       </c>
       <c r="AK137" s="20">
         <v>8.75</v>
+      </c>
+      <c r="AL137" s="20">
+        <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17355,16 +17776,19 @@
         <v>0.38450000000000001</v>
       </c>
       <c r="AK138" s="22">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="AL138" s="22">
         <v>0.38450000000000001</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17467,15 +17891,18 @@
       </c>
       <c r="AK139" s="20">
         <v>183.5146</v>
+      </c>
+      <c r="AL139" s="20">
+        <v>204.3784</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17577,16 +18004,19 @@
         <v>1</v>
       </c>
       <c r="AK140" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17688,16 +18118,19 @@
         <v>1</v>
       </c>
       <c r="AK141" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL141" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17799,16 +18232,19 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+      <c r="AL142" s="22" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17823,7 +18259,7 @@
         <v>4499.0600000000004</v>
       </c>
       <c r="H143" s="20">
-        <v>4635.6999999999998</v>
+        <v>4626.2550000000001</v>
       </c>
       <c r="I143" s="20">
         <v>4798.7749999999996</v>
@@ -17911,15 +18347,18 @@
       </c>
       <c r="AK143" s="20">
         <v>6926.4949999999999</v>
+      </c>
+      <c r="AL143" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18022,15 +18461,18 @@
       </c>
       <c r="AK144" s="22">
         <v>3.698</v>
+      </c>
+      <c r="AL144" s="22">
+        <v>3.8250000000000002</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>446</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18133,15 +18575,18 @@
       </c>
       <c r="AK145" s="20">
         <v>51.960000000000001</v>
+      </c>
+      <c r="AL145" s="20">
+        <v>55.021000000000001</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18244,15 +18689,18 @@
       </c>
       <c r="AK146" s="22">
         <v>4.1801000000000004</v>
+      </c>
+      <c r="AL146" s="22">
+        <v>4.4824999999999999</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>449</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>450</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18354,16 +18802,19 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="AK147" s="20">
+        <v>3.6400000000000001</v>
+      </c>
+      <c r="AL147" s="20">
         <v>3.6400000000000001</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>451</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>452</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18466,15 +18917,18 @@
       </c>
       <c r="AK148" s="22">
         <v>4.4508000000000001</v>
+      </c>
+      <c r="AL148" s="22">
+        <v>4.7423999999999999</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>453</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>454</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18577,15 +19031,18 @@
       </c>
       <c r="AK149" s="20">
         <v>84.085099999999997</v>
+      </c>
+      <c r="AL149" s="20">
+        <v>51.158000000000001</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>455</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>456</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18688,15 +19145,18 @@
       </c>
       <c r="AK150" s="22">
         <v>1017.116279</v>
+      </c>
+      <c r="AL150" s="22">
+        <v>1024.4824060000001</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>458</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18799,15 +19259,18 @@
       </c>
       <c r="AK151" s="20">
         <v>2.5660764690787801</v>
+      </c>
+      <c r="AL151" s="20">
+        <v>2.7114967462038999</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>460</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18910,15 +19373,18 @@
       </c>
       <c r="AK152" s="22">
         <v>0.90081974596883196</v>
+      </c>
+      <c r="AL152" s="22">
+        <v>0.96274188889958601</v>
       </c>
     </row>
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>462</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19008,18 +19474,21 @@
         <v>19.9495</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH153" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="AH153" s="20" t="s">
+      <c r="AI153" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="AI153" s="20" t="s">
+      <c r="AJ153" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="AJ153" s="20" t="s">
+      <c r="AK153" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="AK153" s="20" t="s">
+      <c r="AL153" s="20" t="s">
         <v>467</v>
       </c>
     </row>
@@ -19133,6 +19602,9 @@
       <c r="AK154" s="22">
         <v>3.75</v>
       </c>
+      <c r="AL154" s="22">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
@@ -19244,6 +19716,9 @@
       <c r="AK155" s="20">
         <v>590.899018106477</v>
       </c>
+      <c r="AL155" s="20">
+        <v>631.51728121690599</v>
+      </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
@@ -19355,6 +19830,9 @@
       <c r="AK156" s="22">
         <v>105.502</v>
       </c>
+      <c r="AL156" s="22">
+        <v>112.2638</v>
+      </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
@@ -19466,6 +19944,9 @@
       <c r="AK157" s="20">
         <v>14.2759568560214</v>
       </c>
+      <c r="AL157" s="20">
+        <v>13.933992177936499</v>
+      </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
@@ -19577,6 +20058,9 @@
       <c r="AK158" s="22">
         <v>11889.18</v>
       </c>
+      <c r="AL158" s="22">
+        <v>13153.15</v>
+      </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
@@ -19688,6 +20172,9 @@
       <c r="AK159" s="20">
         <v>1.3533999999999999</v>
       </c>
+      <c r="AL159" s="20">
+        <v>1.3917999999999999</v>
+      </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
@@ -19799,6 +20286,9 @@
       <c r="AK160" s="22">
         <v>1.79</v>
       </c>
+      <c r="AL160" s="22">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
@@ -19910,14 +20400,17 @@
       <c r="AK161" s="20">
         <v>8.02568218298555</v>
       </c>
+      <c r="AL161" s="20" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19977,58 +20470,61 @@
         <v>24305</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK162" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="AL162" s="22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20131,15 +20627,18 @@
       </c>
       <c r="AK163" s="20">
         <v>14.579342238395601</v>
+      </c>
+      <c r="AL163" s="20">
+        <v>16.362300604914299</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20240,17 +20739,20 @@
       <c r="AJ164" s="22">
         <v>432.03399999999999</v>
       </c>
-      <c r="AK164" s="22" t="s">
-        <v>505</v>
+      <c r="AK164" s="22">
+        <v>429.34519999999998</v>
+      </c>
+      <c r="AL164" s="22">
+        <v>499.67415</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20340,28 +20842,31 @@
         <v>186.40819999999999</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="AL165" s="20" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20463,16 +20968,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK166" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL166" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20574,16 +21082,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK167" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL167" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20685,16 +21196,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK168" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL168" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20787,25 +21301,28 @@
         <v>380.81</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>524</v>
+        <v>526</v>
+      </c>
+      <c r="AL169" s="20" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20908,15 +21425,18 @@
       </c>
       <c r="AK170" s="22">
         <v>21.402000000000001</v>
+      </c>
+      <c r="AL170" s="22">
+        <v>22.829000000000001</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21019,15 +21539,18 @@
       </c>
       <c r="AK171" s="20">
         <v>9.3117999999999999</v>
+      </c>
+      <c r="AL171" s="20">
+        <v>10.3302</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21130,15 +21653,18 @@
       </c>
       <c r="AK172" s="22">
         <v>0.92500000000000004</v>
+      </c>
+      <c r="AL172" s="22">
+        <v>0.95569999999999999</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21201,55 +21727,58 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AK173" s="20" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+      <c r="AL173" s="20" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21352,15 +21881,18 @@
       </c>
       <c r="AK174" s="22">
         <v>28.622</v>
+      </c>
+      <c r="AL174" s="22">
+        <v>29.725999999999999</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21463,15 +21995,18 @@
       </c>
       <c r="AK175" s="20">
         <v>12.960000000000001</v>
+      </c>
+      <c r="AL175" s="20">
+        <v>10.5578</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21574,15 +22109,18 @@
       </c>
       <c r="AK176" s="22">
         <v>2298.5544059405902</v>
+      </c>
+      <c r="AL176" s="22">
+        <v>2304.4450990098999</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21685,15 +22223,18 @@
       </c>
       <c r="AK177" s="20">
         <v>33.2973</v>
+      </c>
+      <c r="AL177" s="20">
+        <v>35.296999999999997</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21795,16 +22336,19 @@
         <v>1</v>
       </c>
       <c r="AK178" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL178" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21907,15 +22451,18 @@
       </c>
       <c r="AK179" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL179" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22018,15 +22565,18 @@
       </c>
       <c r="AK180" s="22">
         <v>2.2482014388489202</v>
+      </c>
+      <c r="AL180" s="22" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22129,15 +22679,18 @@
       </c>
       <c r="AK181" s="20">
         <v>6.7545000000000002</v>
+      </c>
+      <c r="AL181" s="20">
+        <v>6.7530999999999999</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22240,15 +22793,18 @@
       </c>
       <c r="AK182" s="22">
         <v>2.9590999999999998</v>
+      </c>
+      <c r="AL182" s="22">
+        <v>3.1166999999999998</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22351,15 +22907,18 @@
       </c>
       <c r="AK183" s="20">
         <v>14.659000000000001</v>
+      </c>
+      <c r="AL183" s="20">
+        <v>16.684049999999999</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22462,15 +23021,18 @@
       </c>
       <c r="AK184" s="22">
         <v>3588.1599999999999</v>
+      </c>
+      <c r="AL184" s="22">
+        <v>3756.6500000000001</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22572,16 +23134,19 @@
         <v>27.278199999999998</v>
       </c>
       <c r="AK185" s="20">
+        <v>29.254899999999999</v>
+      </c>
+      <c r="AL185" s="20">
         <v>29.254899999999999</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22683,16 +23248,19 @@
         <v>3.6724999999999999</v>
       </c>
       <c r="AK186" s="22">
+        <v>3.6724999999999999</v>
+      </c>
+      <c r="AL186" s="22">
         <v>3.6724999999999999</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22795,15 +23363,18 @@
       </c>
       <c r="AK187" s="20">
         <v>0.76187573806712106</v>
+      </c>
+      <c r="AL187" s="20">
+        <v>0.82583202576595904</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22905,16 +23476,19 @@
         <v>1</v>
       </c>
       <c r="AK188" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL188" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23017,15 +23591,18 @@
       </c>
       <c r="AK189" s="20">
         <v>41.115000000000002</v>
+      </c>
+      <c r="AL189" s="20">
+        <v>39.863</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23128,15 +23705,18 @@
       </c>
       <c r="AK190" s="22">
         <v>11400.209999999999</v>
+      </c>
+      <c r="AL190" s="22">
+        <v>10860.25</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23239,15 +23819,18 @@
       </c>
       <c r="AK191" s="20">
         <v>110.31999999999999</v>
+      </c>
+      <c r="AL191" s="20" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23307,58 +23890,61 @@
         <v>95760</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AK192" s="22" t="s">
-        <v>599</v>
+        <v>605</v>
+      </c>
+      <c r="AL192" s="22" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23461,15 +24047,18 @@
       </c>
       <c r="AK193" s="20">
         <v>23100</v>
+      </c>
+      <c r="AL193" s="20">
+        <v>23110</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23572,15 +24161,18 @@
       </c>
       <c r="AK194" s="22">
         <v>1220</v>
+      </c>
+      <c r="AL194" s="22">
+        <v>1129</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23683,78 +24275,81 @@
       </c>
       <c r="AK195" s="20">
         <v>18.091906250000001</v>
+      </c>
+      <c r="AL195" s="20">
+        <v>16.833749999999998</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="Y196" s="22">
         <v>3.012</v>
@@ -23794,15 +24389,18 @@
       </c>
       <c r="AK196" s="22">
         <v>142.4237</v>
+      </c>
+      <c r="AL196" s="22">
+        <v>370.96460000000002</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23905,15 +24503,18 @@
       </c>
       <c r="AK197" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL197" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24015,16 +24616,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK198" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL198" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
@@ -24127,6 +24731,9 @@
       </c>
       <c r="AK199" s="20">
         <v>590.899018106477</v>
+      </c>
+      <c r="AL199" s="20">
+        <v>631.51728121690599</v>
       </c>
     </row>
   </sheetData>
